--- a/server/excel_mapping/administrative_case_GDCtoNCIt.2018.05.11.xlsx
+++ b/server/excel_mapping/administrative_case_GDCtoNCIt.2018.05.11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patelbhp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patelbhp\Desktop\GDCMVS\server\excel_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AAA6904-C73B-4908-B7B5-23D03FFACD23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12429" windowHeight="2100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12429" windowHeight="2100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="administrative|case" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'administrative|case'!$A$1:$AD$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="459">
-  <si>
-    <t>administrative</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="458">
   <si>
     <t>case</t>
   </si>
@@ -1409,7 +1407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1791,11 +1789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1811,22 +1809,22 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -1834,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
@@ -1862,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
@@ -1890,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
@@ -1918,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1942,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
@@ -1970,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
@@ -1998,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
@@ -2026,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
@@ -2054,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
@@ -2082,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
@@ -2110,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
@@ -2138,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
@@ -2166,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2190,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
@@ -2218,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
@@ -2246,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
@@ -2274,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
@@ -2302,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
@@ -2330,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
@@ -2358,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2382,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2406,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2430,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
@@ -2458,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
@@ -2486,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="3"/>
@@ -2514,13 +2512,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2538,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G28" s="3"/>
       <c r="I28" s="3"/>
@@ -2566,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
@@ -2594,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G30" s="3"/>
       <c r="I30" s="3"/>
@@ -2622,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G31" s="3"/>
       <c r="I31" s="3"/>
@@ -2650,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2674,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G33" s="3"/>
       <c r="I33" s="3"/>
@@ -2702,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2726,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2750,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2774,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G37" s="3"/>
       <c r="I37" s="3"/>
@@ -2802,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2826,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39" s="3"/>
@@ -2854,19 +2852,19 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="G40" s="3"/>
       <c r="I40" s="3"/>
@@ -2882,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="G41" s="3"/>
       <c r="I41" s="3"/>
@@ -2910,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G42" s="3"/>
       <c r="I42" s="3"/>
@@ -2938,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G43" s="3"/>
       <c r="I43" s="3"/>
@@ -2966,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="G44" s="3"/>
       <c r="I44" s="3"/>
@@ -2994,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G45" s="3"/>
       <c r="I45" s="3"/>
@@ -3022,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="G46" s="3"/>
       <c r="I46" s="3"/>
@@ -3050,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G47" s="3"/>
       <c r="I47" s="3"/>
@@ -3078,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G48" s="3"/>
       <c r="I48" s="3"/>
@@ -3106,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="3"/>
@@ -3134,19 +3132,19 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="G50" s="3"/>
       <c r="I50" s="3"/>
@@ -3162,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G51" s="3"/>
       <c r="I51" s="3"/>
@@ -3190,19 +3188,19 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G52" s="3"/>
       <c r="I52" s="3"/>
@@ -3218,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G53" s="3"/>
       <c r="I53" s="3"/>
@@ -3246,19 +3244,19 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G54" s="3"/>
       <c r="I54" s="3"/>
@@ -3274,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G55" s="3"/>
       <c r="I55" s="3"/>
@@ -3302,19 +3300,19 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G56" s="3"/>
       <c r="I56" s="3"/>
@@ -3330,19 +3328,19 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
@@ -3358,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
@@ -3386,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3410,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3434,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
@@ -3462,19 +3460,19 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
@@ -3490,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G63" s="3"/>
       <c r="I63" s="3"/>
@@ -3518,19 +3516,19 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G64" s="3"/>
       <c r="I64" s="3"/>
@@ -3546,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3570,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3594,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G67" s="3"/>
       <c r="I67" s="3"/>
@@ -3622,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G68" s="3"/>
       <c r="I68" s="3"/>
@@ -3650,19 +3648,19 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G69" s="3"/>
       <c r="I69" s="3"/>
@@ -3678,19 +3676,19 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G70" s="3"/>
       <c r="I70" s="3"/>
@@ -3706,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3730,19 +3728,19 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G72" s="3"/>
       <c r="I72" s="3"/>
@@ -3758,19 +3756,19 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="G73" s="3"/>
       <c r="I73" s="3"/>
@@ -3786,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G74" s="3"/>
       <c r="I74" s="3"/>
@@ -3814,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3838,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G76" s="3"/>
       <c r="I76" s="3"/>
@@ -3866,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3890,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3914,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G79" s="3"/>
       <c r="I79" s="3"/>
@@ -3942,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G80" s="3"/>
       <c r="I80" s="3"/>
@@ -3970,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3994,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4018,19 +4016,19 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="G83" s="3"/>
       <c r="I83" s="3"/>
@@ -4046,19 +4044,19 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G84" s="3"/>
       <c r="I84" s="3"/>
@@ -4074,19 +4072,19 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="G85" s="3"/>
       <c r="I85" s="3"/>
@@ -4102,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="G86" s="3"/>
       <c r="I86" s="3"/>
@@ -4130,19 +4128,19 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G87" s="3"/>
       <c r="I87" s="3"/>
@@ -4158,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G88" s="3"/>
       <c r="I88" s="3"/>
@@ -4186,19 +4184,19 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G89" s="3"/>
       <c r="I89" s="3"/>
@@ -4214,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4238,19 +4236,19 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="G91" s="3"/>
       <c r="I91" s="3"/>
@@ -4266,19 +4264,19 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="G92" s="3"/>
       <c r="I92" s="3"/>
@@ -4294,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4318,19 +4316,19 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="G94" s="3"/>
       <c r="I94" s="3"/>
@@ -4346,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="F95" s="1" t="str">
         <f>F96</f>
@@ -4375,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G96" s="3"/>
       <c r="I96" s="3"/>
@@ -4403,19 +4401,19 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G97" s="3"/>
       <c r="I97" s="3"/>
@@ -4431,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -4455,19 +4453,19 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G99" s="3"/>
       <c r="I99" s="3"/>
@@ -4483,19 +4481,19 @@
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="G100" s="3"/>
       <c r="I100" s="3"/>
@@ -4514,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="G101" s="3"/>
       <c r="I101" s="3"/>
@@ -4545,19 +4543,19 @@
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G102" s="3"/>
       <c r="I102" s="3"/>
@@ -4576,19 +4574,19 @@
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="G103" s="3"/>
       <c r="I103" s="3"/>
@@ -4607,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="G104" s="3"/>
       <c r="I104" s="3"/>
@@ -4638,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -4665,19 +4663,19 @@
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="G106" s="3"/>
       <c r="I106" s="3"/>
@@ -4696,19 +4694,19 @@
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="G107" s="3"/>
       <c r="I107" s="3"/>
@@ -4727,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="G108" s="3"/>
       <c r="I108" s="3"/>
@@ -4758,19 +4756,19 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="G109" s="3"/>
       <c r="I109" s="3"/>
@@ -4783,19 +4781,19 @@
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G110" s="3"/>
       <c r="I110" s="3"/>
@@ -4808,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G111" s="3"/>
       <c r="I111" s="3"/>
@@ -4833,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -4854,19 +4852,19 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G113" s="3"/>
       <c r="I113" s="3"/>
@@ -4879,19 +4877,19 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G114" s="3"/>
       <c r="I114" s="3"/>
@@ -4904,19 +4902,19 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G115" s="3"/>
       <c r="I115" s="3"/>
@@ -4929,19 +4927,19 @@
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="G116" s="3"/>
       <c r="I116" s="3"/>
@@ -4954,19 +4952,19 @@
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="G117" s="3"/>
       <c r="I117" s="3"/>
@@ -4979,19 +4977,19 @@
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G118" s="3"/>
       <c r="I118" s="3"/>
@@ -5004,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5025,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5046,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G121" s="3"/>
       <c r="I121" s="3"/>
@@ -5071,19 +5069,19 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G122" s="3"/>
       <c r="I122" s="3"/>
@@ -5096,19 +5094,19 @@
         <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G123" s="3"/>
       <c r="I123" s="3"/>
@@ -5121,19 +5119,19 @@
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G124" s="3"/>
       <c r="I124" s="3"/>
@@ -5146,19 +5144,19 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G125" s="3"/>
       <c r="I125" s="3"/>
@@ -5171,19 +5169,19 @@
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G126" s="3"/>
       <c r="I126" s="3"/>
@@ -5196,19 +5194,19 @@
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G127" s="3"/>
       <c r="I127" s="3"/>
@@ -5221,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5242,19 +5240,19 @@
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="G129" s="3"/>
       <c r="I129" s="3"/>
@@ -5267,19 +5265,19 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G130" s="3"/>
       <c r="I130" s="3"/>
@@ -5292,19 +5290,19 @@
         <v>0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G131" s="3"/>
       <c r="I131" s="3"/>
@@ -5317,13 +5315,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -5338,19 +5336,19 @@
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G133" s="3"/>
       <c r="I133" s="3"/>
@@ -5363,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G134" s="3"/>
       <c r="I134" s="3"/>
@@ -5388,19 +5386,19 @@
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="G135" s="3"/>
       <c r="I135" s="3"/>
@@ -5413,19 +5411,19 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G136" s="3"/>
       <c r="I136" s="3"/>
@@ -5438,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -5459,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5480,19 +5478,19 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="G139" s="3"/>
       <c r="I139" s="3"/>
@@ -5505,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G140" s="3"/>
       <c r="I140" s="3"/>
@@ -5530,19 +5528,19 @@
         <v>0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="G141" s="3"/>
       <c r="I141" s="3"/>
@@ -5555,19 +5553,19 @@
         <v>0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G142" s="3"/>
       <c r="I142" s="3"/>
@@ -5580,19 +5578,19 @@
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="G143" s="3"/>
       <c r="I143" s="3"/>
@@ -5605,13 +5603,13 @@
         <v>0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -5626,19 +5624,19 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="G145" s="3"/>
       <c r="I145" s="3"/>
@@ -5651,19 +5649,19 @@
         <v>0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G146" s="3"/>
       <c r="I146" s="3"/>
@@ -5676,19 +5674,19 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G147" s="3"/>
       <c r="I147" s="3"/>
@@ -5701,19 +5699,19 @@
         <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="G148" s="3"/>
       <c r="I148" s="3"/>
@@ -5726,13 +5724,13 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -5747,19 +5745,19 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="G150" s="3"/>
       <c r="I150" s="3"/>
@@ -5772,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="G151" s="3"/>
       <c r="I151" s="3"/>
@@ -5797,19 +5795,19 @@
         <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G152" s="3"/>
       <c r="I152" s="3"/>
@@ -5822,19 +5820,19 @@
         <v>0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="G153" s="3"/>
       <c r="I153" s="3"/>
@@ -5847,19 +5845,19 @@
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="G154" s="3"/>
       <c r="I154" s="3"/>
@@ -5872,19 +5870,19 @@
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="G155" s="3"/>
       <c r="I155" s="3"/>
@@ -5897,19 +5895,19 @@
         <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="G156" s="3"/>
       <c r="I156" s="3"/>
@@ -5922,19 +5920,19 @@
         <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="G157" s="3"/>
       <c r="I157" s="3"/>
@@ -5947,19 +5945,19 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="G158" s="3"/>
       <c r="I158" s="3"/>
@@ -5972,19 +5970,19 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G159" s="3"/>
       <c r="I159" s="3"/>
@@ -5997,19 +5995,19 @@
         <v>0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G160" s="3"/>
       <c r="I160" s="3"/>
@@ -6022,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="G161" s="3"/>
       <c r="I161" s="3"/>
@@ -6047,19 +6045,19 @@
         <v>0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="G162" s="3"/>
       <c r="I162" s="3"/>
@@ -6072,19 +6070,19 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="G163" s="3"/>
       <c r="I163" s="3"/>
@@ -6097,19 +6095,19 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="G164" s="3"/>
       <c r="I164" s="3"/>
@@ -6122,19 +6120,19 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G165" s="3"/>
       <c r="I165" s="3"/>
@@ -6147,19 +6145,19 @@
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="G166" s="3"/>
       <c r="I166" s="3"/>
@@ -6172,19 +6170,19 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="G167" s="3"/>
       <c r="I167" s="3"/>
@@ -6197,19 +6195,19 @@
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G168" s="3"/>
       <c r="I168" s="3"/>
@@ -6222,19 +6220,19 @@
         <v>0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G169" s="3"/>
       <c r="I169" s="3"/>
@@ -6247,19 +6245,19 @@
         <v>0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="G170" s="3"/>
       <c r="I170" s="3"/>
@@ -6272,19 +6270,19 @@
         <v>0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G171" s="3"/>
       <c r="I171" s="3"/>
@@ -6297,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -6318,19 +6316,19 @@
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G173" s="3"/>
       <c r="I173" s="3"/>
@@ -6343,19 +6341,19 @@
         <v>0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G174" s="3"/>
       <c r="I174" s="3"/>
@@ -6368,19 +6366,19 @@
         <v>0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="G175" s="3"/>
       <c r="I175" s="3"/>
@@ -6393,19 +6391,19 @@
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="G176" s="3"/>
       <c r="I176" s="3"/>
@@ -6418,19 +6416,19 @@
         <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G177" s="3"/>
       <c r="I177" s="3"/>
@@ -6443,19 +6441,19 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G178" s="3"/>
       <c r="I178" s="3"/>
@@ -6468,19 +6466,19 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G179" s="3"/>
       <c r="I179" s="3"/>
@@ -6493,19 +6491,19 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="G180" s="3"/>
       <c r="I180" s="3"/>
@@ -6518,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -6539,19 +6537,19 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G182" s="3"/>
       <c r="I182" s="3"/>
@@ -6564,19 +6562,19 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="G183" s="3"/>
       <c r="I183" s="3"/>
@@ -6589,19 +6587,19 @@
         <v>0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="G184" s="3"/>
       <c r="I184" s="3"/>
@@ -6614,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -6635,19 +6633,19 @@
         <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="G186" s="3"/>
       <c r="I186" s="3"/>
@@ -6660,19 +6658,19 @@
         <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G187" s="3"/>
       <c r="I187" s="3"/>
@@ -6685,19 +6683,19 @@
         <v>0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G188" s="3"/>
       <c r="I188" s="3"/>
@@ -6710,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G189" s="3"/>
       <c r="I189" s="3"/>
@@ -6735,19 +6733,19 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G190" s="3"/>
       <c r="I190" s="3"/>
@@ -6760,19 +6758,19 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.45">
@@ -6780,19 +6778,19 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -6800,19 +6798,19 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -6820,13 +6818,13 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -6836,19 +6834,19 @@
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -6856,19 +6854,19 @@
         <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D196" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -6876,19 +6874,19 @@
         <v>0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -6896,19 +6894,19 @@
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -6916,19 +6914,19 @@
         <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -6936,19 +6934,19 @@
         <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -6956,13 +6954,13 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D201" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -6972,19 +6970,19 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D202" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
@@ -6992,19 +6990,19 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D203" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -7012,19 +7010,19 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D204" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -7032,19 +7030,19 @@
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D205" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="F205" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -7052,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D206" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -7076,7 +7074,7 @@
       <c r="F207" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1">
+  <autoFilter ref="A1:AD1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:AD206">
       <sortCondition ref="C1"/>
     </sortState>
